--- a/datadictionary/pca_ehr_datadictionary.xlsx
+++ b/datadictionary/pca_ehr_datadictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="6" r:id="rId1"/>
@@ -5949,8 +5949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D454"/>
   <sheetViews>
-    <sheetView topLeftCell="A365" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D427" sqref="D427"/>
+    <sheetView tabSelected="1" topLeftCell="D117" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.25"/>
@@ -12426,8 +12426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD989"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A76" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="14.25"/>

--- a/datadictionary/pca_ehr_datadictionary.xlsx
+++ b/datadictionary/pca_ehr_datadictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djlemas\Documents\ehr-database\datadictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a87caf6b30614cd/Documents/ehr-database/datadictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_5B9BCC0FE73A285CCA483595657437DF6D09B713" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1BBC3EE2-77AE-4A53-A28A-71F9847F3663}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="6" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="1688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="1692">
   <si>
     <t xml:space="preserve">O00                                                                           </t>
   </si>
@@ -5293,12 +5294,24 @@
   <si>
     <t>Other obstetric conditions, not elsewhere classiﬁed (O95–O99)</t>
   </si>
+  <si>
+    <t>Tubal pregnancy without intrauterine pregnancy</t>
+  </si>
+  <si>
+    <t>Ovarian pregnancy without intrauterine pregnancy</t>
+  </si>
+  <si>
+    <t>Other ectopic pregnancy without intrauterine pregnancy</t>
+  </si>
+  <si>
+    <t>Unspecified ectopic pregnancy without intrauterine pregnancy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5449,6 +5462,12 @@
       <color rgb="FFFF0000"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2C3E50"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5476,7 +5495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5610,6 +5629,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5703,6 +5725,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5738,6 +5777,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5913,7 +5969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5946,16 +6002,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D117" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="20" style="5"/>
+    <col min="1" max="1" width="20" style="5"/>
+    <col min="2" max="2" width="76.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="255.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="20" style="5"/>
@@ -5999,7 +6056,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="5">
+        <v>633.1</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>1688</v>
+      </c>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
@@ -6007,7 +6070,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="5">
+        <v>633.20000000000005</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>1689</v>
+      </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
@@ -6015,7 +6084,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="5">
+        <v>633.79999999999995</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>1690</v>
+      </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
@@ -6023,7 +6098,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="5">
+        <v>633.9</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>1691</v>
+      </c>
       <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
@@ -6039,7 +6120,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="5">
+        <v>630</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>13</v>
+      </c>
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
@@ -6047,7 +6134,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="5">
+        <v>630</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
@@ -6056,6 +6149,12 @@
       </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12" s="5">
+        <v>630</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
@@ -9613,7 +9712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10095,36 +10194,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1"/>
-    <hyperlink ref="C23" r:id="rId2"/>
-    <hyperlink ref="C24" r:id="rId3"/>
-    <hyperlink ref="C25" r:id="rId4"/>
-    <hyperlink ref="C26" r:id="rId5"/>
-    <hyperlink ref="C27" r:id="rId6"/>
-    <hyperlink ref="C28" r:id="rId7"/>
-    <hyperlink ref="C29" r:id="rId8"/>
-    <hyperlink ref="C30" r:id="rId9"/>
-    <hyperlink ref="C31" r:id="rId10"/>
-    <hyperlink ref="C32" r:id="rId11"/>
-    <hyperlink ref="C33" r:id="rId12"/>
-    <hyperlink ref="C34" r:id="rId13"/>
-    <hyperlink ref="C35" r:id="rId14"/>
-    <hyperlink ref="C36" r:id="rId15"/>
-    <hyperlink ref="C37" r:id="rId16"/>
-    <hyperlink ref="C38" r:id="rId17"/>
-    <hyperlink ref="C39" r:id="rId18"/>
-    <hyperlink ref="C40" r:id="rId19"/>
-    <hyperlink ref="C41" r:id="rId20"/>
-    <hyperlink ref="C42" r:id="rId21"/>
-    <hyperlink ref="C43" r:id="rId22"/>
-    <hyperlink ref="C44" r:id="rId23"/>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C23" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C24" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C25" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C26" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C27" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C28" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C29" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="C30" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C31" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="C32" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C33" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="C34" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="C35" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="C36" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="C37" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="C38" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="C39" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="C40" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="C41" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="C42" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="C43" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="C44" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10495,14 +10594,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10516,11 +10615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12143,14 +12242,14 @@
     <mergeCell ref="A127:D127"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D50" r:id="rId1"/>
+    <hyperlink ref="D50" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -12423,10 +12522,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD989"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -45467,27 +45566,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E109" r:id="rId1"/>
-    <hyperlink ref="E110" r:id="rId2"/>
-    <hyperlink ref="E111" r:id="rId3"/>
-    <hyperlink ref="E112" r:id="rId4"/>
-    <hyperlink ref="E113" r:id="rId5"/>
-    <hyperlink ref="E114" r:id="rId6"/>
-    <hyperlink ref="E115" r:id="rId7"/>
-    <hyperlink ref="E116" r:id="rId8"/>
-    <hyperlink ref="E117" r:id="rId9"/>
-    <hyperlink ref="E118" r:id="rId10"/>
-    <hyperlink ref="E119" r:id="rId11"/>
-    <hyperlink ref="E120" r:id="rId12"/>
-    <hyperlink ref="E121" r:id="rId13"/>
-    <hyperlink ref="E122" r:id="rId14"/>
-    <hyperlink ref="E123" r:id="rId15"/>
-    <hyperlink ref="E124" r:id="rId16"/>
-    <hyperlink ref="E125" r:id="rId17"/>
-    <hyperlink ref="E126" r:id="rId18"/>
-    <hyperlink ref="E127" r:id="rId19"/>
-    <hyperlink ref="E128" r:id="rId20"/>
-    <hyperlink ref="E129" r:id="rId21"/>
+    <hyperlink ref="E109" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="E110" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="E111" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="E112" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="E113" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="E114" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="E115" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="E116" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="E117" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="E118" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="E119" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
+    <hyperlink ref="E120" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
+    <hyperlink ref="E121" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
+    <hyperlink ref="E122" r:id="rId14" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
+    <hyperlink ref="E123" r:id="rId15" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
+    <hyperlink ref="E124" r:id="rId16" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
+    <hyperlink ref="E125" r:id="rId17" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
+    <hyperlink ref="E126" r:id="rId18" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
+    <hyperlink ref="E127" r:id="rId19" xr:uid="{00000000-0004-0000-0700-000012000000}"/>
+    <hyperlink ref="E128" r:id="rId20" xr:uid="{00000000-0004-0000-0700-000013000000}"/>
+    <hyperlink ref="E129" r:id="rId21" xr:uid="{00000000-0004-0000-0700-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datadictionary/pca_ehr_datadictionary.xlsx
+++ b/datadictionary/pca_ehr_datadictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="1688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="1688">
   <si>
     <t xml:space="preserve">O00                                                                           </t>
   </si>
@@ -5476,7 +5476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5589,6 +5589,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5949,8 +5952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D117" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.25"/>
@@ -5976,12 +5979,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" s="6" t="s">
@@ -6536,12 +6539,12 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="15">
-      <c r="A72" s="56" t="s">
+      <c r="A72" s="57" t="s">
         <v>1682</v>
       </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
     </row>
     <row r="73" spans="1:4">
       <c r="C73" s="9" t="s">
@@ -6736,12 +6739,12 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="15">
-      <c r="A97" s="56" t="s">
+      <c r="A97" s="57" t="s">
         <v>1683</v>
       </c>
-      <c r="B97" s="56"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="53"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
     </row>
     <row r="98" spans="1:4">
       <c r="C98" s="6" t="s">
@@ -7264,12 +7267,12 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="15">
-      <c r="A163" s="56" t="s">
+      <c r="A163" s="57" t="s">
         <v>1684</v>
       </c>
-      <c r="B163" s="56"/>
-      <c r="C163" s="53"/>
-      <c r="D163" s="53"/>
+      <c r="B163" s="57"/>
+      <c r="C163" s="54"/>
+      <c r="D163" s="54"/>
     </row>
     <row r="164" spans="1:4">
       <c r="C164" s="6" t="s">
@@ -8056,12 +8059,12 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="15">
-      <c r="A262" s="56" t="s">
+      <c r="A262" s="57" t="s">
         <v>1685</v>
       </c>
-      <c r="B262" s="56"/>
-      <c r="C262" s="53"/>
-      <c r="D262" s="53"/>
+      <c r="B262" s="57"/>
+      <c r="C262" s="54"/>
+      <c r="D262" s="54"/>
     </row>
     <row r="263" spans="1:4">
       <c r="C263" s="6" t="s">
@@ -8904,12 +8907,12 @@
       </c>
     </row>
     <row r="368" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A368" s="56" t="s">
+      <c r="A368" s="57" t="s">
         <v>1686</v>
       </c>
-      <c r="B368" s="56"/>
-      <c r="C368" s="53"/>
-      <c r="D368" s="53"/>
+      <c r="B368" s="57"/>
+      <c r="C368" s="54"/>
+      <c r="D368" s="54"/>
     </row>
     <row r="369" spans="3:4">
       <c r="C369" s="9" t="s">
@@ -9336,12 +9339,12 @@
       </c>
     </row>
     <row r="422" spans="1:4" ht="15">
-      <c r="A422" s="52" t="s">
+      <c r="A422" s="53" t="s">
         <v>1687</v>
       </c>
-      <c r="B422" s="52"/>
-      <c r="C422" s="53"/>
-      <c r="D422" s="53"/>
+      <c r="B422" s="53"/>
+      <c r="C422" s="54"/>
+      <c r="D422" s="54"/>
     </row>
     <row r="423" spans="1:4">
       <c r="C423" s="6" t="s">
@@ -9584,16 +9587,16 @@
       </c>
     </row>
     <row r="453" spans="3:4">
-      <c r="C453" s="54" t="s">
+      <c r="C453" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="D453" s="55"/>
+      <c r="D453" s="56"/>
     </row>
     <row r="454" spans="3:4">
-      <c r="C454" s="54" t="s">
+      <c r="C454" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="D454" s="53"/>
+      <c r="D454" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9617,7 +9620,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10120,34 +10123,41 @@
     <hyperlink ref="C44" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="221.1640625" customWidth="1"/>
-    <col min="3" max="3" width="213.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="228" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="213.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" ht="15">
+      <c r="A1" s="21" t="s">
+        <v>920</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>1017</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -10156,16 +10166,16 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.25">
-      <c r="A2" s="37" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.25">
+      <c r="C2" s="37" t="s">
         <v>919</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>917</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -10175,16 +10185,16 @@
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.25">
-      <c r="A3" s="37" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.25">
+      <c r="C3" s="37" t="s">
         <v>918</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>917</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -10194,16 +10204,16 @@
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.25">
-      <c r="A4" s="37" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.25">
+      <c r="C4" s="37" t="s">
         <v>901</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>916</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -10213,16 +10223,16 @@
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
-    </row>
-    <row r="5" spans="1:13" ht="14.25">
-      <c r="A5" s="37" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+    </row>
+    <row r="5" spans="1:15" ht="14.25">
+      <c r="C5" s="37" t="s">
         <v>915</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>914</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -10232,16 +10242,16 @@
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
-    </row>
-    <row r="6" spans="1:13" ht="14.25">
-      <c r="A6" s="37" t="s">
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="1:15" ht="14.25">
+      <c r="C6" s="37" t="s">
         <v>913</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>912</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -10251,16 +10261,16 @@
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.25">
-      <c r="A7" s="37" t="s">
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="1:15" ht="14.25">
+      <c r="C7" s="37" t="s">
         <v>911</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>910</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -10270,16 +10280,16 @@
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="1:13" ht="14.25">
-      <c r="A8" s="37" t="s">
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+    </row>
+    <row r="8" spans="1:15" ht="14.25">
+      <c r="C8" s="37" t="s">
         <v>909</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>908</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -10289,16 +10299,16 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.25">
-      <c r="A9" s="37" t="s">
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.25">
+      <c r="C9" s="37" t="s">
         <v>907</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -10308,16 +10318,16 @@
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.25">
-      <c r="A10" s="37" t="s">
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+    </row>
+    <row r="10" spans="1:15" ht="14.25">
+      <c r="C10" s="37" t="s">
         <v>905</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>904</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -10327,16 +10337,16 @@
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.25">
-      <c r="A11" s="37" t="s">
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+    </row>
+    <row r="11" spans="1:15" ht="14.25">
+      <c r="C11" s="37" t="s">
         <v>903</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>902</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -10346,16 +10356,16 @@
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.25">
-      <c r="A12" s="37" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.25">
+      <c r="C12" s="37" t="s">
         <v>901</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>900</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -10365,16 +10375,16 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.25">
-      <c r="A13" s="37" t="s">
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.25">
+      <c r="C13" s="37" t="s">
         <v>899</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="D13" s="18" t="s">
         <v>898</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -10384,16 +10394,16 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.25">
-      <c r="A14" s="37" t="s">
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.25">
+      <c r="C14" s="37" t="s">
         <v>897</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>896</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -10403,16 +10413,16 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.25">
-      <c r="A15" s="37" t="s">
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="1:15" ht="14.25">
+      <c r="C15" s="37" t="s">
         <v>895</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="D15" s="18" t="s">
         <v>894</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -10422,16 +10432,16 @@
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.25">
-      <c r="A16" s="37" t="s">
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+    </row>
+    <row r="16" spans="1:15" ht="14.25">
+      <c r="C16" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>892</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -10441,16 +10451,16 @@
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
-    </row>
-    <row r="17" spans="1:13" ht="14.25">
-      <c r="A17" s="37" t="s">
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="3:15" ht="14.25">
+      <c r="C17" s="37" t="s">
         <v>891</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>890</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -10460,11 +10470,11 @@
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
-    </row>
-    <row r="18" spans="1:13" ht="14.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+    </row>
+    <row r="18" spans="3:15" ht="14.25">
+      <c r="C18" s="37"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -10475,14 +10485,14 @@
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
-    </row>
-    <row r="19" spans="1:13" ht="14.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="35" t="s">
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+    </row>
+    <row r="19" spans="3:15" ht="14.25">
+      <c r="C19" s="37"/>
+      <c r="D19" s="35" t="s">
         <v>1016</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -10492,12 +10502,15 @@
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1"/>
+    <hyperlink ref="D19" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10520,7 +10533,7 @@
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10547,12 +10560,12 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>1324</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" s="15" t="s">
@@ -11187,12 +11200,12 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="58" t="s">
+      <c r="A82" s="59" t="s">
         <v>1678</v>
       </c>
-      <c r="B82" s="53"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="53"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="54"/>
     </row>
     <row r="83" spans="1:4">
       <c r="C83" s="13"/>
@@ -11523,12 +11536,12 @@
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="58" t="s">
+      <c r="A127" s="59" t="s">
         <v>1508</v>
       </c>
-      <c r="B127" s="53"/>
-      <c r="C127" s="53"/>
-      <c r="D127" s="53"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="54"/>
+      <c r="D127" s="54"/>
     </row>
     <row r="128" spans="1:4">
       <c r="C128" s="13"/>
@@ -12146,6 +12159,7 @@
     <hyperlink ref="D50" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12181,12 +12195,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>1680</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="C3" s="50" t="s">
@@ -12269,12 +12283,12 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="57" t="s">
         <v>1679</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" s="37" t="s">
@@ -12365,12 +12379,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="57" t="s">
         <v>1681</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
     </row>
     <row r="26" spans="1:4">
       <c r="C26" s="49" t="s">
@@ -12419,6 +12433,7 @@
     <mergeCell ref="A25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12426,8 +12441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD989"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="14.25"/>
@@ -45490,5 +45505,6 @@
     <hyperlink ref="E129" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>